--- a/Analytics/SP1/CrossBookings_sp1.xlsx
+++ b/Analytics/SP1/CrossBookings_sp1.xlsx
@@ -82,64 +82,64 @@
     <t>20</t>
   </si>
   <si>
-    <t>Cadiz</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Girona</t>
   </si>
   <si>
     <t>Getafe</t>
   </si>
   <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
     <t>Osasuna</t>
   </si>
   <si>
     <t>Betis</t>
   </si>
   <si>
-    <t>Alaves</t>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
   </si>
   <si>
     <t>Vallecano</t>
   </si>
   <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Almeria</t>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
+    <t>Real Madrid</t>
   </si>
   <si>
     <t>Ath Madrid</t>
   </si>
   <si>
-    <t>Real Madrid</t>
+    <t>Leganes</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -148,7 +148,7 @@
     <t>SUM("TCrossBookings")</t>
   </si>
   <si>
-    <t>SUM("TCrossBookings") / 38</t>
+    <t>SUM("TCrossBookings") / 12</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>23475.0</v>
+        <v>10050.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>20525.0</v>
+        <v>9900.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>17850.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>17675.0</v>
+        <v>5750.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>17000.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>16950.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>16350.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>14550.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>14350.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>12950.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>12900.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>12450.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>12350.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>12350.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>12175.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>11950.0</v>
+        <v>2850.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>11100.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>10700.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>9750.0</v>
+        <v>1650.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>9100.0</v>
+        <v>1200.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>28250.0</v>
+        <v>8100.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>22625.0</v>
+        <v>7550.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>20850.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>18550.0</v>
+        <v>7050.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>17400.0</v>
+        <v>6600.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>16575.0</v>
+        <v>6050.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>16575.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>16350.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>14725.0</v>
+        <v>4650.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>13650.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>12825.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>12450.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>12250.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>10650.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>10450.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>10425.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>9700.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>8350.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>7750.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>6100.0</v>
+        <v>1350.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>48775.0</v>
+        <v>15200.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1283.5526315789473</v>
+        <v>1266.6666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>37800.0</v>
+        <v>12900.0</v>
       </c>
       <c r="D3" t="n">
-        <v>994.7368421052631</v>
+        <v>1075.0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>35525.0</v>
+        <v>12650.0</v>
       </c>
       <c r="D4" t="n">
-        <v>934.8684210526316</v>
+        <v>1054.1666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>33925.0</v>
+        <v>11900.0</v>
       </c>
       <c r="D5" t="n">
-        <v>892.7631578947369</v>
+        <v>991.6666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>33750.0</v>
+        <v>11650.0</v>
       </c>
       <c r="D6" t="n">
-        <v>888.1578947368421</v>
+        <v>970.8333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>30650.0</v>
+        <v>11400.0</v>
       </c>
       <c r="D7" t="n">
-        <v>806.578947368421</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>29275.0</v>
+        <v>11400.0</v>
       </c>
       <c r="D8" t="n">
-        <v>770.3947368421053</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>29250.0</v>
+        <v>10700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>769.7368421052631</v>
+        <v>891.6666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>28925.0</v>
+        <v>10250.0</v>
       </c>
       <c r="D10" t="n">
-        <v>761.1842105263158</v>
+        <v>854.1666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>28525.0</v>
+        <v>9150.0</v>
       </c>
       <c r="D11" t="n">
-        <v>750.6578947368421</v>
+        <v>762.5</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>28325.0</v>
+        <v>8350.0</v>
       </c>
       <c r="D12" t="n">
-        <v>745.3947368421053</v>
+        <v>695.8333333333334</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>27550.0</v>
+        <v>7600.0</v>
       </c>
       <c r="D13" t="n">
-        <v>725.0</v>
+        <v>633.3333333333334</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>26325.0</v>
+        <v>7100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>692.7631578947369</v>
+        <v>591.6666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>25275.0</v>
+        <v>6950.0</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1315789473684</v>
+        <v>579.1666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>25200.0</v>
+        <v>6600.0</v>
       </c>
       <c r="D16" t="n">
-        <v>663.1578947368421</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>22775.0</v>
+        <v>6600.0</v>
       </c>
       <c r="D17" t="n">
-        <v>599.3421052631579</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>22700.0</v>
+        <v>5650.0</v>
       </c>
       <c r="D18" t="n">
-        <v>597.3684210526316</v>
+        <v>470.8333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -941,10 +941,10 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>21550.0</v>
+        <v>4600.0</v>
       </c>
       <c r="D19" t="n">
-        <v>567.1052631578947</v>
+        <v>383.3333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>18850.0</v>
+        <v>3700.0</v>
       </c>
       <c r="D20" t="n">
-        <v>496.05263157894734</v>
+        <v>308.3333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>18050.0</v>
+        <v>3250.0</v>
       </c>
       <c r="D21" t="n">
-        <v>475.0</v>
+        <v>270.8333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SP1/CrossBookings_sp1.xlsx
+++ b/Analytics/SP1/CrossBookings_sp1.xlsx
@@ -85,61 +85,61 @@
     <t>Sevilla</t>
   </si>
   <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
     <t>Valencia</t>
   </si>
   <si>
-    <t>Las Palmas</t>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
   </si>
   <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Alaves</t>
   </si>
   <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
   </si>
   <si>
     <t>Betis</t>
   </si>
   <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Leganes</t>
   </si>
   <si>
     <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Leganes</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>10050.0</v>
+        <v>13750.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>9900.0</v>
+        <v>11150.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>8150.0</v>
+        <v>11100.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>5750.0</v>
+        <v>8900.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>5600.0</v>
+        <v>8850.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>5100.0</v>
+        <v>8100.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>5000.0</v>
+        <v>8100.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>4500.0</v>
+        <v>7050.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>4100.0</v>
+        <v>6500.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>3900.0</v>
+        <v>6350.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>3700.0</v>
+        <v>5850.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>3600.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>3300.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>2950.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>2900.0</v>
+        <v>4050.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>2850.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>2300.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>2300.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1650.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>1200.0</v>
+        <v>2300.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>8100.0</v>
+        <v>11300.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>7550.0</v>
+        <v>10100.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>7400.0</v>
+        <v>9800.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>7050.0</v>
+        <v>9350.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>6600.0</v>
+        <v>9100.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>6050.0</v>
+        <v>9100.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>5450.0</v>
+        <v>8100.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>5400.0</v>
+        <v>7950.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>4650.0</v>
+        <v>7550.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>4500.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>3700.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>3400.0</v>
+        <v>4950.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>3200.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>3000.0</v>
+        <v>4800.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>3000.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>2800.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>2600.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>1600.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>1400.0</v>
+        <v>3250.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>1350.0</v>
+        <v>2100.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>15200.0</v>
+        <v>19100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.6666666666667</v>
+        <v>1591.6666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>12900.0</v>
+        <v>18350.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1075.0</v>
+        <v>1529.1666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>12650.0</v>
+        <v>18200.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1054.1666666666667</v>
+        <v>1516.6666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>11900.0</v>
+        <v>17200.0</v>
       </c>
       <c r="D5" t="n">
-        <v>991.6666666666666</v>
+        <v>1433.3333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>11650.0</v>
+        <v>17000.0</v>
       </c>
       <c r="D6" t="n">
-        <v>970.8333333333334</v>
+        <v>1416.6666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>11400.0</v>
+        <v>16450.0</v>
       </c>
       <c r="D7" t="n">
-        <v>950.0</v>
+        <v>1370.8333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>11400.0</v>
+        <v>16050.0</v>
       </c>
       <c r="D8" t="n">
-        <v>950.0</v>
+        <v>1337.5</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>10700.0</v>
+        <v>15100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>891.6666666666666</v>
+        <v>1258.3333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>10250.0</v>
+        <v>14450.0</v>
       </c>
       <c r="D10" t="n">
-        <v>854.1666666666666</v>
+        <v>1204.1666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>9150.0</v>
+        <v>13000.0</v>
       </c>
       <c r="D11" t="n">
-        <v>762.5</v>
+        <v>1083.3333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>8350.0</v>
+        <v>12650.0</v>
       </c>
       <c r="D12" t="n">
-        <v>695.8333333333334</v>
+        <v>1054.1666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>7600.0</v>
+        <v>12400.0</v>
       </c>
       <c r="D13" t="n">
-        <v>633.3333333333334</v>
+        <v>1033.3333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>7100.0</v>
+        <v>11700.0</v>
       </c>
       <c r="D14" t="n">
-        <v>591.6666666666666</v>
+        <v>975.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>6950.0</v>
+        <v>10700.0</v>
       </c>
       <c r="D15" t="n">
-        <v>579.1666666666666</v>
+        <v>891.6666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>6600.0</v>
+        <v>10700.0</v>
       </c>
       <c r="D16" t="n">
-        <v>550.0</v>
+        <v>891.6666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>6600.0</v>
+        <v>9600.0</v>
       </c>
       <c r="D17" t="n">
-        <v>550.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>5650.0</v>
+        <v>9100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>470.8333333333333</v>
+        <v>758.3333333333334</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>4600.0</v>
+        <v>7200.0</v>
       </c>
       <c r="D19" t="n">
-        <v>383.3333333333333</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>3700.0</v>
+        <v>6150.0</v>
       </c>
       <c r="D20" t="n">
-        <v>308.3333333333333</v>
+        <v>512.5</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>3250.0</v>
+        <v>6100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>270.8333333333333</v>
+        <v>508.3333333333333</v>
       </c>
     </row>
   </sheetData>
